--- a/data/core-questions.xlsx
+++ b/data/core-questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-protocols/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606D0E5A-7919-F54A-9B70-153B69CF0515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09556212-86D4-824B-B44F-BF68880B8DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="21560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey_database" sheetId="1" r:id="rId1"/>
@@ -1996,12 +1996,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I1117"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
@@ -2043,7 +2043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>162</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>163</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>199</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>204</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>205</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>206</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>1530</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>1531</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1532</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>1536</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>1539</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>1542</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>1547</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>1548</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>1549</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>1550</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>1551</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>1552</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>1555</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>1556</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>1557</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>1558</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>1559</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>1560</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>1561</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>1562</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>1563</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>1567</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>1581</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>1589</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>1591</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>1592</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>1593</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>1594</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>1596</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>1606</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>1610</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>1621</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>1623</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>1624</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>1628</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>1635</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>1636</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>1637</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>1649</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>1664</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>1665</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>1704</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>1715</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>1736</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>1739</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>1740</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>1741</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>1742</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>1743</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>1744</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>1745</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>1746</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>1747</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>1748</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>1749</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>1750</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>1751</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>1752</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>1753</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>1754</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>1755</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>1756</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>1757</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>1758</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>1759</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>1761</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>1762</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>1768</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>1769</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>1770</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>1771</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>1772</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>1776</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>1778</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>1779</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>1780</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>1781</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>1786</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>1790</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>1791</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>1792</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>1793</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>1794</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>1795</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>1841</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>2290</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>2296</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>2297</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>2298</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>2301</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>2315</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>2395</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>2396</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>2399</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>2405</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>2472</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>2474</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>2475</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>2476</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>2477</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>2478</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>2480</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>2481</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>2635</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>2636</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>2783</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>2805</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>2806</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>2807</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>4311</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>162</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>163</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>199</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>204</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>205</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>206</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>1530</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>1531</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>1532</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>1536</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>1539</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>1542</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>1547</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>1548</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>1549</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>1550</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>1551</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>1552</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>1555</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>1556</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>1557</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>1558</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>1559</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>1560</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>1561</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>1562</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>1563</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>1567</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>1581</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>1589</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>1591</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>1592</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>1593</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>1594</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>1596</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>1606</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>1610</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>1621</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>1623</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>1624</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>1628</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>1635</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>1636</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>1637</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>1649</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>1664</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>1665</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>1704</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>1715</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>1736</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>1739</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>1740</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>1741</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>1742</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>1743</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>1744</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>1745</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>1746</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>1747</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>1748</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>1749</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>1750</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>1751</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>1752</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>1753</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>1754</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>1755</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>1756</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>1757</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>1758</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>1759</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>1761</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>1762</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>1768</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>1769</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>1770</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>1771</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>1772</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>1776</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>1778</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>1779</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>1780</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>1781</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>1786</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>1790</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>1791</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>1792</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>1793</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>1794</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>1795</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>1841</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>2290</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>2296</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>2297</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>2298</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>2301</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>2315</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>2395</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>2396</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>2399</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>2405</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>2472</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>2474</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>2475</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>2476</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>2477</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>2478</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>2480</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>2481</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>2635</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>2636</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>2783</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>2805</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>2806</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>2807</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>4311</v>
       </c>
@@ -17645,13 +17645,7 @@
       <c r="H1117" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I235" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2432"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I235" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17660,7 +17654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92BFD73-DA47-B642-AF04-FBE2F2E2FDF1}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="350" zoomScaleNormal="350" workbookViewId="0">
+    <sheetView zoomScale="350" zoomScaleNormal="350" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
